--- a/biology/Médecine/Muscles_faciaux/Muscles_faciaux.xlsx
+++ b/biology/Médecine/Muscles_faciaux/Muscles_faciaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles faciaux (ou muscles du visage) sont un groupe de muscles striés innervés par le nerf facial (nerf crânien VII) qui, entre autres choses, contrôlent les expressions faciales. Ces muscles sont également appelés muscles mimétiques.
 </t>
@@ -511,13 +523,85 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles faciaux sont des muscles sous-cutanés (situés juste sous la peau) qui contrôlent les expressions faciales.
-Innervation
-Les muscles faciaux sont innervés par le nerf facial (nerf crânien VII). Les muscles de la mastication sont innervés par le nerf mandibulaire, une branche du nerf trijumeau (nerf crânien V).
-Liste des muscles
-Parmi les muscles faciaux, on trouve[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscles_faciaux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_faciaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles faciaux sont innervés par le nerf facial (nerf crânien VII). Les muscles de la mastication sont innervés par le nerf mandibulaire, une branche du nerf trijumeau (nerf crânien V).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscles_faciaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_faciaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des muscles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les muscles faciaux, on trouve :
 Muscle occipito-frontal
 Muscle procerus
 Muscle transversal du nez
@@ -542,31 +626,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Muscles_faciaux</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscles_faciaux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Micro-expressions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En se basant sur les muscles faciaux faisant appel aux émotions, Paul Ekman a mis en évidence 43 muscles faciaux capables de produire environ 10 000 expressions, dont 3 000 porteuses de sens. Il a été le premier chercheur à établir avec une grande précision les critères de détection des micro-expressions.
 </t>
